--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_11.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>341581.4209335391</v>
+        <v>319653.9938601675</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2758956.857834491</v>
+        <v>2995243.613506388</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20124085.5950219</v>
+        <v>20355670.24425594</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4918816.304644229</v>
+        <v>4812737.401672007</v>
       </c>
     </row>
     <row r="11">
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,13 +735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -829,16 +829,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>22.56635248423082</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,13 +972,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1023,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>22.56635248423081</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="S8" t="n">
-        <v>12.57565326968602</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>10.61706312961831</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1212,73 +1212,73 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="U9" t="n">
         <v>22.56635248423083</v>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="10">
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>22.56635248423083</v>
+        <v>0.2968606583479769</v>
       </c>
       <c r="H10" t="n">
         <v>25.62029119463083</v>
@@ -1315,7 +1315,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>10.61706312961832</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I11" t="n">
-        <v>10.61706312961831</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -1424,10 +1424,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,76 +1446,76 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="C12" t="n">
-        <v>22.56635248423083</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W12" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="Y12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1570,28 +1570,28 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="U13" t="n">
-        <v>22.56635248423081</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1613,19 +1613,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>10.61706312961832</v>
       </c>
       <c r="F14" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>10.61706312961832</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Y14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2968606583479628</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>25.62029119463083</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>0.2968606583479769</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -1853,19 +1853,19 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>22.91618947337665</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1889,16 +1889,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1929,19 +1929,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>34.86547882798917</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,16 +1968,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>24.30129424928645</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,25 +2047,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>9.977552361264268</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>22.44875936050941</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,11 +2078,11 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
@@ -2090,7 +2090,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2102,7 +2102,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2123,28 +2123,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>222.3396163656985</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2157,31 +2157,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>30.67690516600952</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2205,16 +2205,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>153.8375610033827</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2223,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2239,61 +2239,61 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2360,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -2372,19 +2372,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="W23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2394,16 +2394,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2445,25 +2445,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>35.40726547353844</v>
+        <v>61.07562230169311</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2488,58 +2488,58 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,70 +2558,70 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R26" t="n">
-        <v>149.8691179411497</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>52.42556848774763</v>
-      </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,10 +2631,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -2649,13 +2649,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>14.1368900150014</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,25 +2679,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>64.67263725582607</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,22 +2789,22 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
-        <v>9.234466016111838</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,22 +2834,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>84.41978777916125</v>
       </c>
       <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2868,31 +2868,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>83.7598519033036</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -2931,13 +2931,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>106.6874096712025</v>
       </c>
     </row>
     <row r="31">
@@ -2947,58 +2947,58 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3029,19 +3029,19 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="E32" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3086,10 +3086,10 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,31 +3105,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>11.64224265790088</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>35.80758128278321</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,25 +3153,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3263,10 +3263,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="C35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.285385643442</v>
+        <v>189.7190331592112</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
     </row>
     <row r="36">
@@ -3342,31 +3342,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>77.22579746375797</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>59.20104493293761</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,10 +3390,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -3402,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3475,10 +3475,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>47.02492433367362</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3506,16 +3506,16 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="F38" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="G38" t="n">
-        <v>52.42556848774763</v>
+        <v>179.7283339446664</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3560,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3585,13 +3585,13 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>36.40077093850605</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -3600,10 +3600,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>90.4606295994827</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3737,13 +3737,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>199.9862592996837</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="C41" t="n">
-        <v>227.0507031104493</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>177.9933921796109</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>227.0507031104493</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -3800,10 +3800,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>227.0507031104493</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,16 +3816,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>35.53010384214194</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3870,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>227.0507031104493</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>9.009245536101588</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3898,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3958,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>22.56635248423082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4113,16 +4113,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>22.56635248423081</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4192,16 +4192,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>22.56635248423081</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>24.84391873418747</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>76.60208276374469</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>50.72300074896607</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>24.84391873418745</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.72300074896609</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>51.75298821315428</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>77.1170764958388</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>76.6020827637447</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>79.68686933990632</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>53.80778732512771</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>27.41371157825499</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>52.77779986093951</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>78.14188814362403</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.92870531034908</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="C8" t="n">
-        <v>27.92870531034908</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="D8" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="E8" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="F8" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="G8" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="H8" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="I8" t="n">
-        <v>2.049623295570466</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="J8" t="n">
         <v>2.049623295570466</v>
       </c>
       <c r="K8" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L8" t="n">
-        <v>26.38889993046976</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M8" t="n">
-        <v>51.75298821315428</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N8" t="n">
-        <v>77.1170764958388</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="O8" t="n">
-        <v>77.1170764958388</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="P8" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="Q8" t="n">
-        <v>92.38954941029624</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="R8" t="n">
-        <v>66.51046739551762</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S8" t="n">
-        <v>53.80778732512771</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T8" t="n">
-        <v>53.80778732512771</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U8" t="n">
-        <v>53.80778732512771</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="V8" t="n">
-        <v>53.80778732512771</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="W8" t="n">
-        <v>53.80778732512771</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="X8" t="n">
-        <v>53.80778732512771</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="Y8" t="n">
-        <v>27.92870531034908</v>
+        <v>14.11961254265382</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4857,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24.84391873418747</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C9" t="n">
         <v>2.049623295570466</v>
@@ -4887,46 +4887,46 @@
         <v>2.049623295570466</v>
       </c>
       <c r="L9" t="n">
-        <v>27.41371157825499</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M9" t="n">
-        <v>52.77779986093951</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N9" t="n">
-        <v>78.14188814362403</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="O9" t="n">
-        <v>102.4811647785233</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P9" t="n">
-        <v>102.4811647785233</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q9" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="R9" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="S9" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T9" t="n">
         <v>76.6020827637447</v>
       </c>
       <c r="U9" t="n">
-        <v>76.6020827637447</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="V9" t="n">
-        <v>76.6020827637447</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="W9" t="n">
-        <v>50.72300074896609</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="X9" t="n">
-        <v>24.84391873418747</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y9" t="n">
-        <v>24.84391873418747</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="10">
@@ -4951,16 +4951,16 @@
         <v>102.4811647785233</v>
       </c>
       <c r="G10" t="n">
-        <v>79.68686933990632</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="H10" t="n">
-        <v>53.80778732512771</v>
+        <v>76.30222351288816</v>
       </c>
       <c r="I10" t="n">
-        <v>27.92870531034908</v>
+        <v>50.42314149810954</v>
       </c>
       <c r="J10" t="n">
-        <v>2.049623295570466</v>
+        <v>24.54405948333093</v>
       </c>
       <c r="K10" t="n">
         <v>2.049623295570466</v>
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="C11" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="D11" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="E11" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="F11" t="n">
-        <v>24.84391873418747</v>
+        <v>91.75685858698967</v>
       </c>
       <c r="G11" t="n">
-        <v>24.84391873418747</v>
+        <v>65.87777657221105</v>
       </c>
       <c r="H11" t="n">
-        <v>24.84391873418747</v>
+        <v>39.99869455743244</v>
       </c>
       <c r="I11" t="n">
         <v>14.11961254265382</v>
@@ -5072,19 +5072,19 @@
         <v>102.4811647785233</v>
       </c>
       <c r="U11" t="n">
-        <v>76.6020827637447</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V11" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W11" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X11" t="n">
-        <v>50.72300074896609</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Y11" t="n">
-        <v>24.84391873418747</v>
+        <v>102.4811647785233</v>
       </c>
     </row>
     <row r="12">
@@ -5094,7 +5094,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24.84391873418747</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C12" t="n">
         <v>2.049623295570466</v>
@@ -5124,19 +5124,19 @@
         <v>27.41371157825499</v>
       </c>
       <c r="L12" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="M12" t="n">
-        <v>77.1170764958388</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="N12" t="n">
-        <v>77.1170764958388</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O12" t="n">
         <v>77.1170764958388</v>
       </c>
       <c r="P12" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q12" t="n">
         <v>102.4811647785233</v>
@@ -5151,19 +5151,19 @@
         <v>102.4811647785233</v>
       </c>
       <c r="U12" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V12" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W12" t="n">
-        <v>76.6020827637447</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="X12" t="n">
-        <v>76.6020827637447</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="Y12" t="n">
-        <v>50.72300074896609</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="13">
@@ -5209,7 +5209,7 @@
         <v>52.77779986093951</v>
       </c>
       <c r="N13" t="n">
-        <v>78.14188814362403</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O13" t="n">
         <v>102.4811647785233</v>
@@ -5218,25 +5218,25 @@
         <v>102.4811647785233</v>
       </c>
       <c r="Q13" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="R13" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="S13" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="T13" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="U13" t="n">
-        <v>79.68686933990632</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="V13" t="n">
-        <v>53.80778732512771</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="W13" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="X13" t="n">
         <v>2.049623295570466</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>65.87777657221105</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="C14" t="n">
-        <v>65.87777657221105</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="D14" t="n">
-        <v>65.87777657221105</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="E14" t="n">
         <v>65.87777657221105</v>
@@ -5267,10 +5267,10 @@
         <v>39.99869455743244</v>
       </c>
       <c r="G14" t="n">
-        <v>39.99869455743244</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="H14" t="n">
-        <v>39.99869455743244</v>
+        <v>14.11961254265382</v>
       </c>
       <c r="I14" t="n">
         <v>14.11961254265382</v>
@@ -5279,19 +5279,19 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K14" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="L14" t="n">
         <v>27.41371157825499</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>52.77779986093951</v>
-      </c>
-      <c r="M14" t="n">
-        <v>77.1170764958388</v>
       </c>
       <c r="N14" t="n">
         <v>77.1170764958388</v>
       </c>
       <c r="O14" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P14" t="n">
         <v>102.4811647785233</v>
@@ -5303,25 +5303,25 @@
         <v>102.4811647785233</v>
       </c>
       <c r="S14" t="n">
-        <v>91.75685858698967</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="T14" t="n">
-        <v>91.75685858698967</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="U14" t="n">
-        <v>91.75685858698967</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="V14" t="n">
-        <v>91.75685858698967</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="W14" t="n">
-        <v>91.75685858698967</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="X14" t="n">
-        <v>91.75685858698967</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="Y14" t="n">
-        <v>65.87777657221105</v>
+        <v>76.6020827637447</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K15" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="L15" t="n">
-        <v>52.77779986093951</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="M15" t="n">
-        <v>77.1170764958388</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N15" t="n">
-        <v>77.1170764958388</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="O15" t="n">
-        <v>77.1170764958388</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P15" t="n">
         <v>77.1170764958388</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.4811647785233</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="C16" t="n">
-        <v>102.4811647785233</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="D16" t="n">
-        <v>102.4811647785233</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="E16" t="n">
-        <v>102.4811647785233</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="F16" t="n">
-        <v>102.4811647785233</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="G16" t="n">
         <v>102.1813055276668</v>
@@ -5446,40 +5446,40 @@
         <v>52.77779986093951</v>
       </c>
       <c r="N16" t="n">
-        <v>78.14188814362403</v>
+        <v>78.14188814362404</v>
       </c>
       <c r="O16" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="P16" t="n">
-        <v>102.4811647785233</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="Q16" t="n">
-        <v>102.4811647785233</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="R16" t="n">
-        <v>102.4811647785233</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="S16" t="n">
-        <v>102.4811647785233</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="T16" t="n">
-        <v>102.4811647785233</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="U16" t="n">
-        <v>102.4811647785233</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="V16" t="n">
-        <v>102.4811647785233</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="W16" t="n">
-        <v>102.4811647785233</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="X16" t="n">
-        <v>102.4811647785233</v>
+        <v>102.1813055276668</v>
       </c>
       <c r="Y16" t="n">
-        <v>102.4811647785233</v>
+        <v>102.1813055276668</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C17" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D17" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E17" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F17" t="n">
-        <v>135.1878417126385</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G17" t="n">
-        <v>95.20412760976917</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H17" t="n">
-        <v>55.22041350689989</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I17" t="n">
-        <v>15.2366994040306</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J17" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K17" t="n">
-        <v>42.35474834916943</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L17" t="n">
-        <v>79.95943146291799</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="M17" t="n">
-        <v>79.95943146291799</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="N17" t="n">
-        <v>119.1474696551402</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="O17" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="P17" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q17" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R17" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S17" t="n">
-        <v>158.3355078473624</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T17" t="n">
-        <v>158.3355078473624</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="U17" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V17" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W17" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X17" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y17" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="C18" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D18" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E18" t="n">
-        <v>118.3517937444931</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F18" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G18" t="n">
-        <v>78.36807964162378</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H18" t="n">
-        <v>43.15042425981653</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I18" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J18" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K18" t="n">
-        <v>40.77139327069581</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="L18" t="n">
-        <v>40.77139327069581</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="M18" t="n">
-        <v>40.77139327069581</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="N18" t="n">
-        <v>40.77139327069581</v>
+        <v>55.73185102583861</v>
       </c>
       <c r="O18" t="n">
-        <v>79.95943146291799</v>
+        <v>83.04597603355158</v>
       </c>
       <c r="P18" t="n">
-        <v>119.1474696551402</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.3355078473624</v>
+        <v>110.3601010412646</v>
       </c>
       <c r="R18" t="n">
-        <v>158.3355078473624</v>
+        <v>82.49138865710684</v>
       </c>
       <c r="S18" t="n">
-        <v>158.3355078473624</v>
+        <v>54.62267627294912</v>
       </c>
       <c r="T18" t="n">
-        <v>158.3355078473624</v>
+        <v>26.7539638887914</v>
       </c>
       <c r="U18" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="V18" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="W18" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="X18" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="Y18" t="n">
-        <v>158.3355078473624</v>
+        <v>2.207202020825291</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="C19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="D19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="E19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="F19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="G19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="H19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="I19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="J19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="K19" t="n">
-        <v>3.166710156947247</v>
+        <v>2.207202020825291</v>
       </c>
       <c r="L19" t="n">
-        <v>30.48083516466022</v>
+        <v>29.52132702853827</v>
       </c>
       <c r="M19" t="n">
-        <v>69.6688733568824</v>
+        <v>56.83545203625125</v>
       </c>
       <c r="N19" t="n">
-        <v>108.8569115491046</v>
+        <v>84.14957704396423</v>
       </c>
       <c r="O19" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="P19" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.1961881840039</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="R19" t="n">
-        <v>123.1178524655551</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="S19" t="n">
-        <v>83.13413836268582</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="T19" t="n">
-        <v>43.15042425981653</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="U19" t="n">
-        <v>3.166710156947247</v>
+        <v>108.4888536788635</v>
       </c>
       <c r="V19" t="n">
-        <v>3.166710156947247</v>
+        <v>85.81333917329844</v>
       </c>
       <c r="W19" t="n">
-        <v>3.166710156947247</v>
+        <v>57.94462678914073</v>
       </c>
       <c r="X19" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.166710156947247</v>
+        <v>30.07591440498301</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>31.35113235729608</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I20" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5771,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R20" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>518.2486856454962</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>274.7999090013961</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>274.7999090013961</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X20" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5805,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>533.6469426057913</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C21" t="n">
-        <v>359.1939133246643</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D21" t="n">
-        <v>210.2595036634131</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E21" t="n">
-        <v>51.02204865795755</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F21" t="n">
-        <v>51.02204865795755</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
-        <v>51.02204865795755</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>51.02204865795755</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M21" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N21" t="n">
-        <v>656.0584510084244</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O21" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5853,28 +5853,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T21" t="n">
-        <v>761.8705608694022</v>
+        <v>534.0788057531981</v>
       </c>
       <c r="U21" t="n">
-        <v>533.6469426057913</v>
+        <v>534.0788057531981</v>
       </c>
       <c r="V21" t="n">
-        <v>533.6469426057913</v>
+        <v>534.0788057531981</v>
       </c>
       <c r="W21" t="n">
-        <v>533.6469426057913</v>
+        <v>534.0788057531981</v>
       </c>
       <c r="X21" t="n">
-        <v>533.6469426057913</v>
+        <v>326.2273055476653</v>
       </c>
       <c r="Y21" t="n">
-        <v>533.6469426057913</v>
+        <v>326.2273055476653</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6008,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6042,13 +6042,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>352.9716273967953</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6072,19 +6072,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>417.4543050195419</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N24" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O24" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6093,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T24" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U24" t="n">
-        <v>533.6469426057913</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V24" t="n">
-        <v>298.4948343740486</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W24" t="n">
-        <v>55.04605772994853</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>728.9472631818171</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>521.1869644168632</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D26" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
         <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.7341723913397</v>
+        <v>124.6145917896818</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>124.6145917896818</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>124.6145917896818</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>124.6145917896818</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>124.6145917896818</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>124.6145917896818</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>496.4894350879777</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
-        <v>735.0935810768601</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P27" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>193.7341723913397</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>193.7341723913397</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X27" t="n">
-        <v>193.7341723913397</v>
+        <v>292.8299288097498</v>
       </c>
       <c r="Y27" t="n">
-        <v>193.7341723913397</v>
+        <v>292.8299288097498</v>
       </c>
     </row>
     <row r="28">
@@ -6406,13 +6406,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>40.6788758079141</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F29" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T29" t="n">
-        <v>527.5764290961142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U29" t="n">
-        <v>284.1276524520142</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V29" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W29" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X29" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y29" t="n">
-        <v>284.1276524520142</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>243.3720121938209</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C30" t="n">
-        <v>243.3720121938209</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D30" t="n">
-        <v>243.3720121938209</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E30" t="n">
-        <v>243.3720121938209</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F30" t="n">
-        <v>243.3720121938209</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>104.6411867764364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>104.6411867764364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P30" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W30" t="n">
-        <v>619.4388494194218</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X30" t="n">
-        <v>411.587349213889</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y30" t="n">
-        <v>411.587349213889</v>
+        <v>648.4405950311615</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K32" t="n">
-        <v>122.2961490211351</v>
+        <v>23.55055379931807</v>
       </c>
       <c r="L32" t="n">
-        <v>302.3720006057937</v>
+        <v>203.6264053839766</v>
       </c>
       <c r="M32" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U32" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>327.2640844659515</v>
+        <v>166.7699294300763</v>
       </c>
       <c r="C33" t="n">
-        <v>315.5042433973647</v>
+        <v>166.7699294300763</v>
       </c>
       <c r="D33" t="n">
-        <v>166.5698337361135</v>
+        <v>166.7699294300763</v>
       </c>
       <c r="E33" t="n">
-        <v>166.5698337361135</v>
+        <v>166.7699294300763</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>166.7699294300763</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>130.6006554070629</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J33" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>435.095875319717</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>648.335933025915</v>
       </c>
       <c r="O33" t="n">
-        <v>894.6625969973069</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="V33" t="n">
-        <v>327.2640844659515</v>
+        <v>760.4064612849986</v>
       </c>
       <c r="W33" t="n">
-        <v>327.2640844659515</v>
+        <v>542.8367666556771</v>
       </c>
       <c r="X33" t="n">
-        <v>327.2640844659515</v>
+        <v>334.9852664501443</v>
       </c>
       <c r="Y33" t="n">
-        <v>327.2640844659515</v>
+        <v>334.9852664501443</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K35" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L35" t="n">
-        <v>302.3720006057937</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M35" t="n">
-        <v>519.3476278686978</v>
+        <v>513.5624350164212</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="U35" t="n">
-        <v>749.627473042513</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>234.8012144439637</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>319.0683498528888</v>
+        <v>233.9682012560247</v>
       </c>
       <c r="C36" t="n">
-        <v>319.0683498528888</v>
+        <v>233.9682012560247</v>
       </c>
       <c r="D36" t="n">
-        <v>170.1339401916375</v>
+        <v>233.9682012560247</v>
       </c>
       <c r="E36" t="n">
-        <v>170.1339401916375</v>
+        <v>233.9682012560247</v>
       </c>
       <c r="F36" t="n">
-        <v>170.1339401916375</v>
+        <v>155.9623452320268</v>
       </c>
       <c r="G36" t="n">
-        <v>170.1339401916375</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J36" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L36" t="n">
-        <v>144.6387031680501</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="M36" t="n">
-        <v>383.2428491569326</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="N36" t="n">
-        <v>621.8469951458151</v>
+        <v>443.7116352270382</v>
       </c>
       <c r="O36" t="n">
-        <v>860.4511411346975</v>
+        <v>656.9516929332361</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>659.389396090879</v>
       </c>
       <c r="U36" t="n">
-        <v>487.2836868729568</v>
+        <v>659.389396090879</v>
       </c>
       <c r="V36" t="n">
-        <v>487.2836868729568</v>
+        <v>441.8197014615575</v>
       </c>
       <c r="W36" t="n">
-        <v>487.2836868729568</v>
+        <v>441.8197014615575</v>
       </c>
       <c r="X36" t="n">
-        <v>487.2836868729568</v>
+        <v>233.9682012560247</v>
       </c>
       <c r="Y36" t="n">
-        <v>487.2836868729568</v>
+        <v>233.9682012560247</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>754.3578252495552</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>793.5458634417773</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>837.2367140972136</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>774.5436238112095</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>774.5436238112095</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>774.5436238112095</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>774.5436238112095</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>727.0437002418422</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>559.1338160830064</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="C38" t="n">
-        <v>559.1338160830064</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="D38" t="n">
-        <v>559.1338160830064</v>
+        <v>633.9146807345644</v>
       </c>
       <c r="E38" t="n">
-        <v>315.6850394389064</v>
+        <v>416.3449861052429</v>
       </c>
       <c r="F38" t="n">
-        <v>72.23626279480629</v>
+        <v>198.7752914759215</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K38" t="n">
-        <v>122.2961490211351</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L38" t="n">
-        <v>302.3720006057937</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M38" t="n">
-        <v>519.3476278686978</v>
+        <v>416.8664630901746</v>
       </c>
       <c r="N38" t="n">
-        <v>725.2021500759372</v>
+        <v>622.7209852974139</v>
       </c>
       <c r="O38" t="n">
-        <v>874.3971002185853</v>
+        <v>771.915935440062</v>
       </c>
       <c r="P38" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="S38" t="n">
-        <v>802.5825927271064</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="T38" t="n">
-        <v>802.5825927271064</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="U38" t="n">
-        <v>802.5825927271064</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="V38" t="n">
-        <v>559.1338160830064</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="W38" t="n">
-        <v>559.1338160830064</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="X38" t="n">
-        <v>559.1338160830064</v>
+        <v>851.4843753638859</v>
       </c>
       <c r="Y38" t="n">
-        <v>559.1338160830064</v>
+        <v>851.4843753638859</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>694.6722890434539</v>
+        <v>428.568935829903</v>
       </c>
       <c r="C39" t="n">
-        <v>694.6722890434539</v>
+        <v>428.568935829903</v>
       </c>
       <c r="D39" t="n">
-        <v>545.7378793822027</v>
+        <v>428.568935829903</v>
       </c>
       <c r="E39" t="n">
-        <v>508.9694238887622</v>
+        <v>269.3314808244475</v>
       </c>
       <c r="F39" t="n">
-        <v>362.4348659156472</v>
+        <v>269.3314808244475</v>
       </c>
       <c r="G39" t="n">
-        <v>223.7040404982626</v>
+        <v>130.6006554070629</v>
       </c>
       <c r="H39" t="n">
-        <v>110.334904905842</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J39" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="M39" t="n">
-        <v>304.2053859195205</v>
+        <v>230.4715775208402</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>443.7116352270382</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>656.9516929332361</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>839.595170546587</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>770.2016173993021</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>596.784272849971</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>596.784272849971</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>596.784272849971</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>596.784272849971</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>596.784272849971</v>
       </c>
       <c r="X39" t="n">
-        <v>862.8876260635219</v>
+        <v>596.784272849971</v>
       </c>
       <c r="Y39" t="n">
-        <v>862.8876260635219</v>
+        <v>596.784272849971</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>44.54564482235524</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>83.73368301457742</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>127.4245336700137</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>151.763810304913</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>476.8523453608548</v>
+        <v>196.8652463213176</v>
       </c>
       <c r="C41" t="n">
-        <v>247.5082008048454</v>
+        <v>196.8652463213176</v>
       </c>
       <c r="D41" t="n">
-        <v>247.5082008048454</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="E41" t="n">
-        <v>247.5082008048454</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="F41" t="n">
-        <v>247.5082008048454</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="G41" t="n">
-        <v>247.5082008048454</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="H41" t="n">
-        <v>18.16405624883594</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="I41" t="n">
-        <v>18.16405624883594</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="J41" t="n">
-        <v>18.16405624883594</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="K41" t="n">
-        <v>121.1790621597583</v>
+        <v>120.0889470003098</v>
       </c>
       <c r="L41" t="n">
-        <v>301.2549137444169</v>
+        <v>300.1647985849684</v>
       </c>
       <c r="M41" t="n">
-        <v>518.230541007321</v>
+        <v>511.4548195661379</v>
       </c>
       <c r="N41" t="n">
-        <v>724.0850632145603</v>
+        <v>717.3093417733771</v>
       </c>
       <c r="O41" t="n">
-        <v>818.5427571497462</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="P41" t="n">
-        <v>908.2028124417972</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="Q41" t="n">
-        <v>908.2028124417972</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="R41" t="n">
-        <v>908.2028124417972</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="S41" t="n">
-        <v>908.2028124417972</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="T41" t="n">
-        <v>908.2028124417972</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="U41" t="n">
-        <v>908.2028124417972</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="V41" t="n">
-        <v>908.2028124417972</v>
+        <v>843.6054391011446</v>
       </c>
       <c r="W41" t="n">
-        <v>678.8586678857878</v>
+        <v>628.0253748412023</v>
       </c>
       <c r="X41" t="n">
-        <v>678.8586678857878</v>
+        <v>412.4453105812599</v>
       </c>
       <c r="Y41" t="n">
-        <v>678.8586678857878</v>
+        <v>412.4453105812599</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>501.5430828494555</v>
+        <v>192.2811030233001</v>
       </c>
       <c r="C42" t="n">
-        <v>327.0900535683284</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="D42" t="n">
-        <v>178.1556439070771</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="E42" t="n">
-        <v>18.91818890162166</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="F42" t="n">
-        <v>18.91818890162166</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="G42" t="n">
-        <v>18.91818890162166</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="H42" t="n">
-        <v>18.91818890162166</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="I42" t="n">
-        <v>18.91818890162166</v>
+        <v>17.82807374217315</v>
       </c>
       <c r="J42" t="n">
-        <v>18.16405624883594</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="K42" t="n">
-        <v>143.5216163066733</v>
+        <v>17.07394108938743</v>
       </c>
       <c r="L42" t="n">
-        <v>368.3018123860181</v>
+        <v>179.0789763803525</v>
       </c>
       <c r="M42" t="n">
-        <v>593.0820084653629</v>
+        <v>390.368997361522</v>
       </c>
       <c r="N42" t="n">
-        <v>817.8622045447078</v>
+        <v>601.6590183426915</v>
       </c>
       <c r="O42" t="n">
-        <v>908.2028124417972</v>
+        <v>601.6590183426915</v>
       </c>
       <c r="P42" t="n">
-        <v>908.2028124417972</v>
+        <v>784.3024959560423</v>
       </c>
       <c r="Q42" t="n">
-        <v>908.2028124417972</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="R42" t="n">
-        <v>908.2028124417972</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S42" t="n">
-        <v>908.2028124417972</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T42" t="n">
-        <v>908.2028124417972</v>
+        <v>651.5104598281378</v>
       </c>
       <c r="U42" t="n">
-        <v>908.2028124417972</v>
+        <v>651.5104598281378</v>
       </c>
       <c r="V42" t="n">
-        <v>908.2028124417972</v>
+        <v>651.5104598281378</v>
       </c>
       <c r="W42" t="n">
-        <v>678.8586678857878</v>
+        <v>435.9303955681954</v>
       </c>
       <c r="X42" t="n">
-        <v>678.8586678857878</v>
+        <v>435.9303955681954</v>
       </c>
       <c r="Y42" t="n">
-        <v>669.7584198695236</v>
+        <v>228.1700968032415</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>773.6705219515264</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="C43" t="n">
-        <v>773.6705219515264</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="D43" t="n">
-        <v>773.6705219515264</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="E43" t="n">
-        <v>773.6705219515264</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="F43" t="n">
-        <v>773.6705219515264</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="G43" t="n">
-        <v>773.6705219515264</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="H43" t="n">
-        <v>773.6705219515264</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="I43" t="n">
-        <v>773.6705219515264</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="J43" t="n">
-        <v>773.6705219515264</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="K43" t="n">
-        <v>773.6705219515264</v>
+        <v>719.1647639791009</v>
       </c>
       <c r="L43" t="n">
-        <v>800.9846469592394</v>
+        <v>746.4788889868139</v>
       </c>
       <c r="M43" t="n">
-        <v>840.1726851514616</v>
+        <v>785.6669271790361</v>
       </c>
       <c r="N43" t="n">
-        <v>883.8635358068979</v>
+        <v>829.3577778344724</v>
       </c>
       <c r="O43" t="n">
-        <v>908.2028124417972</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="P43" t="n">
-        <v>908.2028124417972</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="Q43" t="n">
-        <v>908.2028124417972</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="R43" t="n">
-        <v>908.2028124417972</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="S43" t="n">
-        <v>908.2028124417972</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="T43" t="n">
-        <v>908.2028124417972</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="U43" t="n">
-        <v>908.2028124417972</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="V43" t="n">
-        <v>908.2028124417972</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="W43" t="n">
-        <v>773.6705219515264</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="X43" t="n">
-        <v>773.6705219515264</v>
+        <v>853.6970544693717</v>
       </c>
       <c r="Y43" t="n">
-        <v>773.6705219515264</v>
+        <v>853.6970544693717</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>26.38889993046974</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>51.75298821315425</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>77.11707649583877</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>76.60208276374468</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>50.72300074896607</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>50.72300074896607</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>50.72300074896607</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>24.84391873418745</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>24.84391873418745</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>26.38889993046974</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>51.75298821315425</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>77.11707649583877</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>77.11707649583877</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>79.68686933990631</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>53.80778732512769</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>53.80778732512769</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>27.41371157825498</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>52.7777998609395</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>78.14188814362402</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>102.4811647785233</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>79.68686933990631</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>53.80778732512769</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>27.92870531034908</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.049623295570466</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>253.9981915106306</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8064,19 +8064,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>167.1813723584841</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8140,16 +8140,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8216,10 +8216,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>261.3867061646181</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
         <v>230.3462332272727</v>
@@ -8228,10 +8228,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>254.6833393357264</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,22 +8298,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>155.926839997373</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>159.5946986089611</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8377,16 +8377,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
         <v>135.0065633140411</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L8" t="n">
-        <v>260.3515428840269</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M8" t="n">
         <v>255.9665244219036</v>
       </c>
       <c r="N8" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>256.8532869499004</v>
+        <v>255.8181236693092</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,22 +8535,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>167.7543251166491</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N9" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>167.1813723584841</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,22 +8772,22 @@
         <v>163.4617301689898</v>
       </c>
       <c r="L12" t="n">
-        <v>164.174670974505</v>
+        <v>163.1395076939139</v>
       </c>
       <c r="M12" t="n">
-        <v>166.719161836058</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q12" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>245.7101422396114</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
         <v>261.3867061646181</v>
       </c>
       <c r="M14" t="n">
-        <v>254.9313611413124</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>255.7185026163176</v>
       </c>
       <c r="P14" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,22 +9006,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>163.4617301689898</v>
+        <v>162.4265668883987</v>
       </c>
       <c r="L15" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>166.719161836058</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>159.5946986089611</v>
       </c>
       <c r="Q15" t="n">
         <v>165.6020652806523</v>
@@ -9164,19 +9164,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>259.6737280068211</v>
+        <v>247.6798763052967</v>
       </c>
       <c r="L17" t="n">
-        <v>273.750943367713</v>
+        <v>263.3564402303034</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>256.8215099922226</v>
       </c>
       <c r="N17" t="n">
-        <v>268.9969405584315</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>269.6820883835273</v>
+        <v>257.6882366820029</v>
       </c>
       <c r="P17" t="n">
         <v>231.2329957552695</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>175.8259673720848</v>
+        <v>165.4314642346751</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>165.029656544824</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
@@ -9255,13 +9255,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>182.180121406285</v>
+        <v>170.1862697047606</v>
       </c>
       <c r="P18" t="n">
-        <v>173.5582843761708</v>
+        <v>161.5644326746464</v>
       </c>
       <c r="Q18" t="n">
-        <v>179.5656510478621</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9328,10 +9328,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M19" t="n">
-        <v>178.5096609094456</v>
+        <v>166.5158092079212</v>
       </c>
       <c r="N19" t="n">
-        <v>167.2694214270738</v>
+        <v>155.2755697255493</v>
       </c>
       <c r="O19" t="n">
         <v>163.0416663658825</v>
@@ -9401,7 +9401,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9480,22 +9480,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>174.6270615612551</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9720,22 +9720,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,10 +9954,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9966,13 +9966,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7328472056018</v>
       </c>
       <c r="M30" t="n">
-        <v>368.5691090902119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10209,7 +10209,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10349,13 +10349,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>226.4727136557642</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>348.8252438198737</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O33" t="n">
-        <v>185.8815939223662</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10592,10 +10592,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>445.740230910301</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>339.6742254965835</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10665,25 +10665,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P36" t="n">
-        <v>238.6269471880057</v>
+        <v>270.570103662358</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10826,10 +10826,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>348.0675319949004</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10902,25 +10902,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>303.312501347746</v>
+        <v>357.5280316050465</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>162.1846227582699</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,16 +11066,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>443.7704968446156</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>325.5100234774301</v>
+        <v>367.8635777812772</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11139,25 +11139,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>365.6050828903235</v>
+        <v>302.1958295687278</v>
       </c>
       <c r="M42" t="n">
-        <v>369.1847370324676</v>
+        <v>355.5582975393612</v>
       </c>
       <c r="N42" t="n">
-        <v>358.3924151937826</v>
+        <v>344.7659757006762</v>
       </c>
       <c r="O42" t="n">
-        <v>233.8493837344337</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,16 +11303,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>254.9313611413124</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11382,19 +11382,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>166.719161836058</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>156.9620032779641</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>168.2165356390753</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11458,16 +11458,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>160.5049674758691</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M46" t="n">
-        <v>164.5460751422359</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N46" t="n">
-        <v>153.305835659864</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O46" t="n">
-        <v>163.0416663658825</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P46" t="n">
         <v>135.0065633140411</v>
@@ -22592,16 +22592,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>127.3027654569188</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>197.4755583695005</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>225.7253617132057</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22613,7 +22613,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>360.6176474614227</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22623,13 +22623,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>140.9128924552365</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>147.0882077936849</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>124.8787130804079</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22674,7 +22674,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>146.062879909207</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22717,16 +22717,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>142.3706881638279</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H4" t="n">
-        <v>136.6068813128088</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>129.8301837326275</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>70.79282763244196</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22781,13 +22781,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>357.1135504688497</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>342.7065392867767</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>329.0627504260521</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22850,7 +22850,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>360.6176474614227</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22860,13 +22860,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>143.9668311656365</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>147.0882077936849</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>121.8247743700079</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -22911,7 +22911,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>146.062879909207</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -22954,16 +22954,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>145.424626874228</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6068813128088</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>129.8301837326275</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>67.73888892204195</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -23024,7 +23024,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>329.0627504260521</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23042,7 +23042,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,19 +23063,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>124.2488267465189</v>
       </c>
       <c r="S8" t="n">
-        <v>196.4444163165593</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>197.4755583695005</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>240.7285897782182</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23100,7 +23100,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>150.1421465040849</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23145,28 +23145,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>74.5375429580123</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>174.5444375001908</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>203.375029596744</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>226.0746919662888</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>180.1526940088467</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>180.0624045826735</v>
       </c>
     </row>
     <row r="10">
@@ -23191,7 +23191,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>145.4246268742279</v>
+        <v>167.6941187001108</v>
       </c>
       <c r="H10" t="n">
         <v>136.6068813128088</v>
@@ -23203,7 +23203,7 @@
         <v>67.73888892204195</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>396.2589826120931</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>313.8545109211363</v>
       </c>
       <c r="I11" t="n">
-        <v>199.8588264407876</v>
+        <v>184.8555983757751</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,10 +23312,10 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>225.7253617132057</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>302.1319672755041</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -23324,7 +23324,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>360.6176474614227</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23334,10 +23334,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>140.9128924552365</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>150.1421465040849</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23391,19 +23391,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>200.321090886344</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>207.1802959547944</v>
       </c>
       <c r="W12" t="n">
         <v>226.0746919662888</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>183.2066327192466</v>
       </c>
       <c r="Y12" t="n">
-        <v>180.0624045826735</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23458,28 +23458,28 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>60.54175205706355</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>151.6731001825387</v>
       </c>
       <c r="S13" t="n">
-        <v>224.0165980369723</v>
+        <v>198.3963068423414</v>
       </c>
       <c r="T13" t="n">
-        <v>227.9455894282815</v>
+        <v>205.3792369440507</v>
       </c>
       <c r="U13" t="n">
-        <v>263.7526768722601</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V13" t="n">
-        <v>226.5173521291972</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>260.9027071419601</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>200.0893641944063</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23501,19 +23501,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>371.3133069426435</v>
       </c>
       <c r="F14" t="n">
         <v>381.2557545470806</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>389.6824463205042</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>184.8555983757751</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>198.403006456627</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
@@ -23558,10 +23558,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>344.1108094838382</v>
       </c>
       <c r="Y14" t="n">
-        <v>360.6176474614227</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.6941187001108</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H16" t="n">
         <v>136.6068813128088</v>
@@ -23692,7 +23692,7 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>2.424580076758535</v>
       </c>
       <c r="Q16" t="n">
         <v>86.16204325169439</v>
@@ -23741,19 +23741,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>383.9598562683348</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>375.7188605532945</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>299.8909251539266</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>170.8920126085653</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23777,16 +23777,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>122.2790926808335</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>181.4300443259292</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>195.5058243038152</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>227.04435865855</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23817,19 +23817,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>118.0612034935604</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>105.4853354315433</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>77.36996540850728</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>49.81275588957449</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23856,16 +23856,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>72.56780889232699</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>144.0931458435217</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>172.5747034345055</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>201.6400878316884</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>139.6567958383117</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,25 +23935,25 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>167.3158390159052</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>184.4327210751317</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>188.3617124664409</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>246.7351523946503</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>229.6888839633186</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>258.9329730762748</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>198.119630128721</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23966,10 +23966,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23978,7 +23978,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
@@ -23990,7 +23990,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24011,28 +24011,28 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0.7562331984328523</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>157.4457150350269</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24045,31 +24045,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>58.71972768540556</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24093,16 +24093,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>46.32716769143889</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24111,7 +24111,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24127,7 +24127,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24181,7 +24181,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U22" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24218,7 +24218,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24248,7 +24248,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
@@ -24260,19 +24260,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>125.4575720412377</v>
       </c>
       <c r="W23" t="n">
         <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y23" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24282,16 +24282,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24333,25 +24333,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>170.365719729939</v>
+        <v>144.6973629017844</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24376,7 +24376,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.80401177309076</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H25" t="n">
         <v>162.2271725074396</v>
@@ -24427,7 +24427,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366913</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24446,16 +24446,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24485,31 +24485,31 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>317.3055321907214</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,10 +24519,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -24537,13 +24537,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>98.09855422149506</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,25 +24567,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>168.1279498935992</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -24646,7 +24646,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S28" t="n">
         <v>224.0165980369723</v>
@@ -24655,7 +24655,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24689,10 +24689,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>406.0682714990232</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24701,7 +24701,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,22 +24722,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24756,31 +24756,31 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>5.636780948111479</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,7 +24804,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24819,13 +24819,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>98.99528610610187</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24886,7 +24886,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T31" t="n">
         <v>227.9455894282815</v>
@@ -24917,19 +24917,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>175.5538586117963</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>139.2890439376547</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>166.5363723892335</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>191.4820480586832</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24974,10 +24974,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,31 +24993,31 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>161.0662563304149</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>101.5359358804274</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,25 +25041,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>36.30098547789137</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25081,7 +25081,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25090,7 +25090,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25151,10 +25151,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>167.3398439804523</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25205,22 +25205,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>33.37681640492011</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>112.3582607871067</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>170.8439409730254</v>
       </c>
     </row>
     <row r="36">
@@ -25230,31 +25230,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>67.84341492962591</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>53.03439930355886</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,10 +25278,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25290,13 +25290,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>17.40658946639704</v>
       </c>
       <c r="W36" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25354,7 +25354,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25363,10 +25363,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>286.3190293564909</v>
+        <v>239.2941050228173</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25394,16 +25394,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>139.2890439376547</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>166.5363723892335</v>
       </c>
       <c r="F38" t="n">
-        <v>165.8617568640524</v>
+        <v>191.4820480586832</v>
       </c>
       <c r="G38" t="n">
-        <v>362.8771690273874</v>
+        <v>235.5744035704686</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25436,7 +25436,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25448,7 +25448,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25473,13 +25473,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>121.2443095168949</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -25488,10 +25488,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,10 +25515,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>9.697204553160432</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25603,13 +25603,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25625,13 +25625,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>182.7475823637969</v>
+        <v>169.3095780461377</v>
       </c>
       <c r="C41" t="n">
-        <v>138.2221886605583</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>176.6896494410721</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25643,7 +25643,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>112.4240990053179</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25670,7 +25670,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25688,10 +25688,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>122.1902656069637</v>
+        <v>135.8167051000701</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>156.3068370611261</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,16 +25704,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>131.0030798077254</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25758,7 +25758,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
@@ -25767,13 +25767,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>24.64428005047031</v>
+        <v>38.27071954357669</v>
       </c>
       <c r="X42" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>196.6734502412028</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25786,7 +25786,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325984</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25846,7 +25846,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25913,10 +25913,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>183.3997783916145</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>197.4755583695005</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25925,13 +25925,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>323.6206775227822</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>363.6715861718228</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25944,7 +25944,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>147.0882077936849</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -26001,16 +26001,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>210.2342346651945</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>226.0746919662888</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
-        <v>180.0624045826735</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="46">
@@ -26080,16 +26080,16 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
-        <v>229.5712908395972</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>260.9027071419601</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>200.0893641944063</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>192.964362157464</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>350049.7958156169</v>
+        <v>327897.5868709115</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>350049.7958156169</v>
+        <v>327897.5868709115</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>350049.795815617</v>
+        <v>350049.7958156171</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>350049.7958156171</v>
+        <v>350049.7958156169</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>361211.7009109397</v>
+        <v>351685.049566824</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506909.1411107077</v>
+        <v>506909.1411107078</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>506909.1411107077</v>
+        <v>506909.1411107078</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>506909.1411107078</v>
+        <v>506909.1411107077</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>506909.1411107077</v>
+        <v>488398.3911706115</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>506909.1411107077</v>
+        <v>488398.3911706115</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>506909.1411107078</v>
+        <v>488398.3911706114</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>496820.4015862299</v>
+        <v>486975.2514232371</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>350049.7958156168</v>
+        <v>327897.5868709115</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63121.07616893067</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="C2" t="n">
-        <v>63121.07616893067</v>
+        <v>59129.07304229552</v>
       </c>
       <c r="D2" t="n">
         <v>63121.07616893067</v>
       </c>
       <c r="E2" t="n">
-        <v>63121.07616893066</v>
+        <v>63121.07616893067</v>
       </c>
       <c r="F2" t="n">
         <v>63121.07616893067</v>
       </c>
       <c r="G2" t="n">
-        <v>65132.53968261259</v>
+        <v>63415.7618187435</v>
       </c>
       <c r="H2" t="n">
-        <v>91388.36989223282</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="I2" t="n">
         <v>91388.36989223282</v>
       </c>
       <c r="J2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="K2" t="n">
-        <v>91388.3698922328</v>
+        <v>91388.36989223279</v>
       </c>
       <c r="L2" t="n">
-        <v>91388.36989223276</v>
+        <v>88052.58645764727</v>
       </c>
       <c r="M2" t="n">
-        <v>91388.36989223279</v>
+        <v>88052.58645764727</v>
       </c>
       <c r="N2" t="n">
-        <v>91388.36989223279</v>
+        <v>88052.58645764727</v>
       </c>
       <c r="O2" t="n">
-        <v>89570.29929593005</v>
+        <v>87796.12542771841</v>
       </c>
       <c r="P2" t="n">
-        <v>63121.07616893067</v>
+        <v>59129.07304229552</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8585.948846018267</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>7958.431053788175</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26378,16 +26378,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3827.209405005687</v>
+        <v>539.8745613933579</v>
       </c>
       <c r="H3" t="n">
-        <v>54347.73800859507</v>
+        <v>57583.78714233168</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6703.395469327989</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9279.245290983388</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="C4" t="n">
-        <v>9279.245290983388</v>
+        <v>10750.74055314464</v>
       </c>
       <c r="D4" t="n">
-        <v>9279.24529098339</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="E4" t="n">
-        <v>9279.245290983388</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="F4" t="n">
-        <v>9279.245290983388</v>
+        <v>11513.51303840759</v>
       </c>
       <c r="G4" t="n">
-        <v>9591.0346155059</v>
+        <v>11569.82013495752</v>
       </c>
       <c r="H4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13660.85119937745</v>
+        <v>16277.30441356933</v>
       </c>
       <c r="M4" t="n">
-        <v>13660.85119937745</v>
+        <v>16277.30441356933</v>
       </c>
       <c r="N4" t="n">
-        <v>13660.85119937745</v>
+        <v>16277.30441356933</v>
       </c>
       <c r="O4" t="n">
-        <v>13379.03897693357</v>
+        <v>16228.30109093496</v>
       </c>
       <c r="P4" t="n">
-        <v>9279.245290983388</v>
+        <v>10750.74055314464</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35185.31370463355</v>
+        <v>33627.6</v>
       </c>
       <c r="C5" t="n">
-        <v>35185.31370463355</v>
+        <v>33627.6</v>
       </c>
       <c r="D5" t="n">
         <v>35185.31370463355</v>
@@ -26482,7 +26482,7 @@
         <v>1557.713704633554</v>
       </c>
       <c r="G5" t="n">
-        <v>2406.699719279908</v>
+        <v>1677.473535827221</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26497,19 +26497,19 @@
         <v>14653.66876376167</v>
       </c>
       <c r="L5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="M5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="N5" t="n">
-        <v>14653.66876376167</v>
+        <v>13095.95505912812</v>
       </c>
       <c r="O5" t="n">
-        <v>13804.68274911532</v>
+        <v>12976.19522793445</v>
       </c>
       <c r="P5" t="n">
-        <v>1557.713704633554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10070.56832729546</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="C6" t="n">
-        <v>18656.51717331373</v>
+        <v>14750.73248915088</v>
       </c>
       <c r="D6" t="n">
-        <v>18656.51717331373</v>
+        <v>8463.818372101341</v>
       </c>
       <c r="E6" t="n">
-        <v>52284.11717331372</v>
+        <v>50049.84942588952</v>
       </c>
       <c r="F6" t="n">
-        <v>52284.11717331372</v>
+        <v>50049.84942588953</v>
       </c>
       <c r="G6" t="n">
-        <v>49307.5959428211</v>
+        <v>49628.5935865654</v>
       </c>
       <c r="H6" t="n">
-        <v>8726.111920498628</v>
+        <v>2236.2243451586</v>
       </c>
       <c r="I6" t="n">
-        <v>63073.8499290937</v>
+        <v>59820.01148749031</v>
       </c>
       <c r="J6" t="n">
-        <v>56370.45445976569</v>
+        <v>59820.01148749028</v>
       </c>
       <c r="K6" t="n">
-        <v>63073.84992909369</v>
+        <v>59820.01148749028</v>
       </c>
       <c r="L6" t="n">
-        <v>63073.84992909365</v>
+        <v>58679.32698494982</v>
       </c>
       <c r="M6" t="n">
-        <v>63073.84992909367</v>
+        <v>58679.32698494982</v>
       </c>
       <c r="N6" t="n">
-        <v>63073.84992909367</v>
+        <v>58679.32698494982</v>
       </c>
       <c r="O6" t="n">
-        <v>62386.57756988116</v>
+        <v>58591.629108849</v>
       </c>
       <c r="P6" t="n">
-        <v>52284.11717331373</v>
+        <v>48378.33248915088</v>
       </c>
     </row>
   </sheetData>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>25.62029119463083</v>
@@ -26802,7 +26802,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="G4" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26817,19 +26817,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O4" t="n">
-        <v>227.0507031104493</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="P4" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27009,14 +27009,14 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
@@ -27024,16 +27024,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>13.96358576720976</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="H4" t="n">
-        <v>201.4304119158185</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,14 +27255,14 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
       <c r="M4" t="n">
         <v>0</v>
       </c>
@@ -27270,10 +27270,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>13.96358576720976</v>
+        <v>1.969734065685309</v>
       </c>
       <c r="P4" t="n">
-        <v>201.4304119158185</v>
+        <v>213.4242636173429</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34936,10 +34936,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,10 +34948,10 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>24.58512791403969</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35097,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L8" t="n">
-        <v>24.58512791403969</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="M8" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="N8" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>25.62029119463083</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,22 +35255,22 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="M9" t="n">
+      <c r="P9" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="N9" t="n">
+      <c r="Q9" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="O9" t="n">
-        <v>24.58512791403969</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35340,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="N10" t="n">
-        <v>25.62029119463083</v>
+        <v>25.62029119463084</v>
       </c>
       <c r="O10" t="n">
         <v>24.58512791403967</v>
@@ -35492,22 +35492,22 @@
         <v>25.62029119463083</v>
       </c>
       <c r="L12" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="M12" t="n">
-        <v>24.58512791403969</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q12" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="M14" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="N14" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>24.58512791403969</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="L15" t="n">
+      <c r="P15" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="M15" t="n">
-        <v>24.58512791403969</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>25.62029119463083</v>
@@ -35884,19 +35884,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L17" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>26.47527676494983</v>
       </c>
       <c r="N17" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35963,10 +35963,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>37.98452839772582</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>26.47527676494984</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -35975,13 +35975,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="P18" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="Q18" t="n">
-        <v>39.58387696184059</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36048,10 +36048,10 @@
         <v>27.59002526031614</v>
       </c>
       <c r="M19" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="N19" t="n">
-        <v>39.58387696184059</v>
+        <v>27.59002526031614</v>
       </c>
       <c r="O19" t="n">
         <v>24.58512791403967</v>
@@ -36133,7 +36133,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O20" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36440,22 +36440,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36607,7 +36607,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P26" t="n">
         <v>90.5657124162131</v>
@@ -36674,10 +36674,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36686,13 +36686,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,16 +36911,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="M30" t="n">
-        <v>226.4350751681936</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -36929,7 +36929,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>104.0555615261842</v>
+        <v>6.382862610783645</v>
       </c>
       <c r="L32" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M32" t="n">
-        <v>219.1673002655598</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N32" t="n">
         <v>207.9338608153932</v>
@@ -37148,25 +37148,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>206.6912098978554</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O33" t="n">
-        <v>43.28534947792182</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37312,10 +37312,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153932</v>
+        <v>110.2611618999926</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37385,25 +37385,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P36" t="n">
-        <v>104.6525397736754</v>
+        <v>136.5956962480277</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
-        <v>219.1673002655598</v>
+        <v>117.7212987676277</v>
       </c>
       <c r="N38" t="n">
         <v>207.9338608153932</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>161.1784674257276</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>22.20284867224837</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,16 +37786,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>219.1673002655598</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="N41" t="n">
         <v>207.9338608153932</v>
       </c>
       <c r="O41" t="n">
-        <v>95.41181205574338</v>
+        <v>137.7653663595904</v>
       </c>
       <c r="P41" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37859,25 +37859,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>227.0507031104493</v>
+        <v>163.6414497888537</v>
       </c>
       <c r="M42" t="n">
-        <v>227.0507031104493</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="N42" t="n">
-        <v>227.0507031104493</v>
+        <v>213.4242636173429</v>
       </c>
       <c r="O42" t="n">
-        <v>91.25313928998929</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38023,16 +38023,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38178,16 +38178,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>25.62029119463082</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>24.58512791403967</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
